--- a/project-scaffold/Autocomplete graphs/TernarySearchTreeAutocomplete data trial 1.xlsx
+++ b/project-scaffold/Autocomplete graphs/TernarySearchTreeAutocomplete data trial 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1ea3cf31a6ef637/Desktop/Q8 CSE 373/Autocomplete/autocomplete/project-scaffold/Autocomplete graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{6699BF6B-A31E-47FA-A1BD-9ED78628D60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52D7D6B0-D71E-4212-BD54-DC6B997BFA79}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{6699BF6B-A31E-47FA-A1BD-9ED78628D60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C18D90-3DEC-47B9-9996-8C00CDFD0C3F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3127,7 +3127,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
